--- a/data/trans_dic/P79$hipoteca_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P79$hipoteca_2023-Provincia-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.006326846353093381</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.001617097451102582</v>
+        <v>0.001617097451102583</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.003974739708057983</v>
+        <v>0.003974739708057982</v>
       </c>
     </row>
     <row r="5">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0008032745041947291</v>
+        <v>0.0008250101981666259</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02279361494237058</v>
+        <v>0.02402876960941052</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.008268551494984093</v>
+        <v>0.009558544808204545</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01107464064236315</v>
+        <v>0.0119685044374138</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.001300162375336844</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0006593505756024781</v>
+        <v>0.0006593505756024779</v>
       </c>
     </row>
     <row r="8">
@@ -652,10 +652,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.005826768434473121</v>
+        <v>0.006612377340113003</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.004010233214294496</v>
+        <v>0.003601845042974846</v>
       </c>
     </row>
     <row r="10">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01390869065787377</v>
+        <v>0.01599727285601525</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01132842977806449</v>
+        <v>0.009435797685406179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.007637494630845365</v>
+        <v>0.009140303564923437</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003238955411205768</v>
+        <v>0.003180340704672971</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001620083533930409</v>
+        <v>0.001569176656959849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003294032544597518</v>
+        <v>0.00364038337127893</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03412505978842675</v>
+        <v>0.03364657888730976</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01774644365798578</v>
+        <v>0.01684922872078137</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01904998403353888</v>
+        <v>0.01873029504207347</v>
       </c>
     </row>
     <row r="16">
@@ -812,11 +812,11 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03094535788447984</v>
+        <v>0.02245485505688894</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.01170430508899052</v>
+        <v>0.01096745252645202</v>
       </c>
     </row>
     <row r="19">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.00139665296442586</v>
+        <v>0.001340352571535019</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.003768586878922129</v>
+        <v>0.003757461792222465</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003197084493991541</v>
+        <v>0.003211309086813558</v>
       </c>
     </row>
     <row r="24">
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01335384958260284</v>
+        <v>0.01120471161857595</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0145767171849339</v>
+        <v>0.01431823847423796</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01114876707225085</v>
+        <v>0.01130641407477123</v>
       </c>
     </row>
     <row r="25">
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01989716406138113</v>
+        <v>0.02029800194914694</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01254312445306392</v>
+        <v>0.0123171711644619</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01820128242180823</v>
+        <v>0.01826246109490796</v>
       </c>
     </row>
     <row r="27">
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04715417650256466</v>
+        <v>0.04557796925407004</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03043341996114058</v>
+        <v>0.03002677691934271</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0341240418482163</v>
+        <v>0.03386856863616949</v>
       </c>
     </row>
     <row r="28">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.007087312751458907</v>
+        <v>0.006724891717042139</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.004962320552897461</v>
+        <v>0.005084450588077853</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.006723313001067988</v>
+        <v>0.006680283695945554</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01425767175296438</v>
+        <v>0.01411315831301202</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.009964351232463446</v>
+        <v>0.009852804371628722</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01086969514719655</v>
+        <v>0.01105191174853041</v>
       </c>
     </row>
     <row r="31">
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>497</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7061</v>
+        <v>7443</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2555</v>
+        <v>2954</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6853</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="8">
@@ -1258,10 +1258,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>3106</v>
+        <v>3525</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4215</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="12">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4342</v>
+        <v>4994</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3883</v>
+        <v>3234</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5002</v>
+        <v>5987</v>
       </c>
     </row>
     <row r="16">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1143</v>
+        <v>1123</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2461</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="19">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12046</v>
+        <v>11877</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6995</v>
+        <v>6642</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14234</v>
+        <v>13995</v>
       </c>
     </row>
     <row r="20">
@@ -1469,11 +1469,11 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6250</v>
+        <v>4535</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>4990</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="24">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>950</v>
+        <v>912</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2767</v>
+        <v>2758</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4522</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="31">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9086</v>
+        <v>7624</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>10701</v>
+        <v>10511</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15770</v>
+        <v>15993</v>
       </c>
     </row>
     <row r="32">
@@ -1654,13 +1654,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>15529</v>
+        <v>15842</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>10048</v>
+        <v>9867</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>28786</v>
+        <v>28883</v>
       </c>
     </row>
     <row r="35">
@@ -1671,13 +1671,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>36803</v>
+        <v>35573</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>24378</v>
+        <v>24053</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>53968</v>
+        <v>53564</v>
       </c>
     </row>
     <row r="36">
@@ -1726,13 +1726,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>24244</v>
+        <v>23005</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>17860</v>
+        <v>18299</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>47197</v>
+        <v>46895</v>
       </c>
     </row>
     <row r="39">
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>48773</v>
+        <v>48279</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>35862</v>
+        <v>35461</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>76304</v>
+        <v>77583</v>
       </c>
     </row>
     <row r="40">
